--- a/data/trans_orig/POLIPATOLOGIA_DISC-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_DISC-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EFE82C1-850E-4A38-A94D-6BE94A85B024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B59AEC7-4BB5-43D4-87DF-A30A0336E09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0D32F058-EF62-4582-8A4F-B08D8C6104EE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D6FCFB5D-E5CB-4A80-96B9-D5F65BEB81A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="358">
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -527,571 +527,547 @@
     <t>14,52%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
   </si>
   <si>
     <t>22,35%</t>
   </si>
   <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>18,38%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
   </si>
   <si>
     <t>85,48%</t>
   </si>
   <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>77,65%</t>
   </si>
   <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>81,62%</t>
   </si>
   <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>84,0%</t>
   </si>
   <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>9,84%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>90,16%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>80,76%</t>
   </si>
   <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>10,95%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
+    <t>26,91%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
-    <t>20,88%</t>
+    <t>17,45%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>89,05%</t>
   </si>
   <si>
     <t>75,74%</t>
   </si>
   <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>73,09%</t>
   </si>
   <si>
     <t>80,86%</t>
   </si>
   <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>13,55%</t>
@@ -1100,37 +1076,43 @@
     <t>22,7%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>86,45%</t>
   </si>
   <si>
+    <t>88,83%</t>
+  </si>
+  <si>
     <t>77,3%</t>
   </si>
   <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>83,22%</t>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62EFB9E-AC13-4B41-AC82-4057D14A8342}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A1A8A7-82F4-420B-820E-F7CF5CB72157}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2519,7 +2501,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2570,7 +2552,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2605,7 +2587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A5CA8E-E97B-4858-BA43-C367C0479C63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D060AE0-1598-4DB6-A759-71628E5BA65E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3668,7 +3650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3566D7E4-8E71-440C-90CA-75EAD3201D73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB5F5F6-1A38-414F-9D0A-3AF94AA9F8AC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4257,13 +4239,13 @@
         <v>69418</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
@@ -4272,13 +4254,13 @@
         <v>143443</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>193</v>
@@ -4287,13 +4269,13 @@
         <v>212861</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4290,13 @@
         <v>690134</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>610</v>
@@ -4323,13 +4305,13 @@
         <v>641568</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>1239</v>
@@ -4338,13 +4320,13 @@
         <v>1331702</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4394,13 @@
         <v>82254</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>164</v>
@@ -4427,13 +4409,13 @@
         <v>190846</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>247</v>
@@ -4442,13 +4424,13 @@
         <v>273100</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4445,13 @@
         <v>855313</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>795</v>
@@ -4478,13 +4460,13 @@
         <v>852933</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>1644</v>
@@ -4493,13 +4475,13 @@
         <v>1708246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4549,13 @@
         <v>314603</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>610</v>
@@ -4582,13 +4564,13 @@
         <v>693672</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>922</v>
@@ -4597,13 +4579,13 @@
         <v>1008275</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4600,13 @@
         <v>3079747</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>2728</v>
@@ -4633,13 +4615,13 @@
         <v>2850870</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>5647</v>
@@ -4648,13 +4630,13 @@
         <v>5930617</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,7 +4713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE54B1C-BBA2-46B1-A72A-794EF0D8F35D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D387FCC-B12C-4AB2-ADD7-25E86A9F0D8B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4748,7 +4730,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4855,13 +4837,13 @@
         <v>21517</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
@@ -4870,13 +4852,13 @@
         <v>33154</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M4" s="7">
         <v>99</v>
@@ -4885,13 +4867,13 @@
         <v>54671</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,13 +4888,13 @@
         <v>80465</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>275</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -4921,13 +4903,13 @@
         <v>97579</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M5" s="7">
         <v>262</v>
@@ -4936,13 +4918,13 @@
         <v>178044</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +4992,13 @@
         <v>85297</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H7" s="7">
         <v>281</v>
@@ -5025,13 +5007,13 @@
         <v>145851</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -5040,13 +5022,13 @@
         <v>231148</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +5043,13 @@
         <v>464526</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H8" s="7">
         <v>717</v>
@@ -5076,13 +5058,13 @@
         <v>474116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M8" s="7">
         <v>1220</v>
@@ -5091,13 +5073,13 @@
         <v>938642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5147,13 @@
         <v>100445</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
         <v>408</v>
@@ -5180,13 +5162,13 @@
         <v>249131</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M10" s="7">
         <v>524</v>
@@ -5195,13 +5177,13 @@
         <v>349575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,13 +5198,13 @@
         <v>938803</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H11" s="7">
         <v>1109</v>
@@ -5231,13 +5213,13 @@
         <v>810948</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M11" s="7">
         <v>1957</v>
@@ -5246,13 +5228,13 @@
         <v>1749752</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5302,13 @@
         <v>84734</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H13" s="7">
         <v>251</v>
@@ -5335,13 +5317,13 @@
         <v>163389</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M13" s="7">
         <v>339</v>
@@ -5350,13 +5332,13 @@
         <v>248122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,13 +5353,13 @@
         <v>644038</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H14" s="7">
         <v>796</v>
@@ -5386,13 +5368,13 @@
         <v>710982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M14" s="7">
         <v>1384</v>
@@ -5401,13 +5383,13 @@
         <v>1355020</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>327</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5457,13 @@
         <v>125758</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>336</v>
+        <v>112</v>
       </c>
       <c r="H16" s="7">
         <v>413</v>
@@ -5490,13 +5472,13 @@
         <v>279123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M16" s="7">
         <v>564</v>
@@ -5505,13 +5487,13 @@
         <v>404880</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>335</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5508,13 @@
         <v>839645</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>121</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H17" s="7">
         <v>1149</v>
@@ -5541,13 +5523,13 @@
         <v>871309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>2004</v>
@@ -5556,13 +5538,13 @@
         <v>1710955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5612,13 @@
         <v>417750</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>350</v>
+        <v>233</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H19" s="7">
         <v>1425</v>
@@ -5645,13 +5627,13 @@
         <v>870647</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M19" s="7">
         <v>1916</v>
@@ -5660,13 +5642,13 @@
         <v>1288397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>284</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5663,13 @@
         <v>2967478</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>351</v>
       </c>
       <c r="H20" s="7">
         <v>3942</v>
@@ -5696,28 +5678,28 @@
         <v>2964934</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M20" s="7">
         <v>6827</v>
       </c>
       <c r="N20" s="7">
-        <v>5932412</v>
+        <v>5932411</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>356</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,7 +5741,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/POLIPATOLOGIA_DISC-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_DISC-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B59AEC7-4BB5-43D4-87DF-A30A0336E09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8845128-6FE3-4747-8125-C9E1BB2014E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D6FCFB5D-E5CB-4A80-96B9-D5F65BEB81A6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{715DF991-75CF-473E-B6D5-8AD8577155FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="356">
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -128,7 +128,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -143,7 +143,7 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -200,70 +200,70 @@
     <t>6,89%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>75,52%</t>
   </si>
   <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
   </si>
   <si>
     <t>84,47%</t>
   </si>
   <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>20,34%</t>
+    <t>20,78%</t>
   </si>
   <si>
     <t>27,73%</t>
@@ -272,19 +272,19 @@
     <t>18,59%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>87,01%</t>
   </si>
   <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>75,8%</t>
@@ -293,802 +293,796 @@
     <t>72,27%</t>
   </si>
   <si>
-    <t>79,66%</t>
+    <t>79,22%</t>
   </si>
   <si>
     <t>81,41%</t>
   </si>
   <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
   </si>
   <si>
     <t>22,43%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
   </si>
   <si>
     <t>87,52%</t>
   </si>
   <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>77,57%</t>
   </si>
   <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
   </si>
   <si>
     <t>82,51%</t>
   </si>
   <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>9,37%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
   </si>
   <si>
     <t>78,11%</t>
   </si>
   <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>87,66%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
   </si>
   <si>
     <t>86,45%</t>
@@ -1524,7 +1518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A1A8A7-82F4-420B-820E-F7CF5CB72157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACEF522-1CC2-494E-84A4-EAF981D5233C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2471,7 +2465,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2522,7 +2516,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2587,7 +2581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D060AE0-1598-4DB6-A759-71628E5BA65E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE77265-12A6-4DF9-A28F-2D5892338DDA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3650,7 +3644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB5F5F6-1A38-414F-9D0A-3AF94AA9F8AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BEF342-0DBA-4120-B919-C62CECFD2962}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3929,13 +3923,13 @@
         <v>45441</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>123</v>
@@ -3944,13 +3938,13 @@
         <v>133421</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>169</v>
@@ -3959,13 +3953,13 @@
         <v>178862</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3974,13 @@
         <v>512813</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>428</v>
@@ -3995,13 +3989,13 @@
         <v>426058</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>921</v>
@@ -4010,13 +4004,13 @@
         <v>938871</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4078,13 @@
         <v>100572</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>174</v>
@@ -4099,13 +4093,13 @@
         <v>200622</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>273</v>
@@ -4114,13 +4108,13 @@
         <v>301194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4129,13 @@
         <v>921859</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>803</v>
@@ -4150,13 +4144,13 @@
         <v>842291</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>1655</v>
@@ -4165,13 +4159,13 @@
         <v>1764150</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4233,13 @@
         <v>69418</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
@@ -4254,13 +4248,13 @@
         <v>143443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>193</v>
@@ -4269,13 +4263,13 @@
         <v>212861</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4284,13 @@
         <v>690134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>610</v>
@@ -4305,13 +4299,13 @@
         <v>641568</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>1239</v>
@@ -4320,10 +4314,10 @@
         <v>1331702</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>226</v>
@@ -4409,13 +4403,13 @@
         <v>190846</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>247</v>
@@ -4424,13 +4418,13 @@
         <v>273100</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4439,13 @@
         <v>855313</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>795</v>
@@ -4460,13 +4454,13 @@
         <v>852933</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>1644</v>
@@ -4475,13 +4469,13 @@
         <v>1708246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4543,13 @@
         <v>314603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7">
         <v>610</v>
@@ -4564,13 +4558,13 @@
         <v>693672</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="M19" s="7">
         <v>922</v>
@@ -4579,13 +4573,13 @@
         <v>1008275</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4594,13 @@
         <v>3079747</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H20" s="7">
         <v>2728</v>
@@ -4615,13 +4609,13 @@
         <v>2850870</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>5647</v>
@@ -4630,13 +4624,13 @@
         <v>5930617</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,7 +4707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D387FCC-B12C-4AB2-ADD7-25E86A9F0D8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD02425-4C84-48E0-A1A6-8D29897C9E27}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4730,7 +4724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4837,13 +4831,13 @@
         <v>21517</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>168</v>
+        <v>254</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
@@ -4852,13 +4846,13 @@
         <v>33154</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M4" s="7">
         <v>99</v>
@@ -4867,13 +4861,13 @@
         <v>54671</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4882,13 @@
         <v>80465</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -4903,13 +4897,13 @@
         <v>97579</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M5" s="7">
         <v>262</v>
@@ -4918,13 +4912,13 @@
         <v>178044</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4986,13 @@
         <v>85297</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H7" s="7">
         <v>281</v>
@@ -5007,13 +5001,13 @@
         <v>145851</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -5022,13 +5016,13 @@
         <v>231148</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5037,13 @@
         <v>464526</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H8" s="7">
         <v>717</v>
@@ -5058,13 +5052,13 @@
         <v>474116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M8" s="7">
         <v>1220</v>
@@ -5073,13 +5067,13 @@
         <v>938642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5141,13 @@
         <v>100445</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H10" s="7">
         <v>408</v>
@@ -5162,13 +5156,13 @@
         <v>249131</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M10" s="7">
         <v>524</v>
@@ -5177,13 +5171,13 @@
         <v>349575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5192,13 @@
         <v>938803</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H11" s="7">
         <v>1109</v>
@@ -5213,13 +5207,13 @@
         <v>810948</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M11" s="7">
         <v>1957</v>
@@ -5228,13 +5222,13 @@
         <v>1749752</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5296,13 @@
         <v>84734</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H13" s="7">
         <v>251</v>
@@ -5317,13 +5311,13 @@
         <v>163389</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M13" s="7">
         <v>339</v>
@@ -5332,13 +5326,13 @@
         <v>248122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5347,13 @@
         <v>644038</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
         <v>796</v>
@@ -5368,13 +5362,13 @@
         <v>710982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M14" s="7">
         <v>1384</v>
@@ -5383,13 +5377,13 @@
         <v>1355020</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,10 +5451,10 @@
         <v>125758</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>112</v>
@@ -5472,13 +5466,13 @@
         <v>279123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>327</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M16" s="7">
         <v>564</v>
@@ -5487,13 +5481,13 @@
         <v>404880</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>334</v>
+        <v>128</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5502,13 @@
         <v>839645</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>121</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H17" s="7">
         <v>1149</v>
@@ -5523,13 +5517,13 @@
         <v>871309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="M17" s="7">
         <v>2004</v>
@@ -5538,13 +5532,13 @@
         <v>1710955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>340</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5606,13 @@
         <v>417750</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>233</v>
+        <v>338</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H19" s="7">
         <v>1425</v>
@@ -5627,13 +5621,13 @@
         <v>870647</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M19" s="7">
         <v>1916</v>
@@ -5642,13 +5636,13 @@
         <v>1288397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5657,13 @@
         <v>2967478</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>347</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H20" s="7">
         <v>3942</v>
@@ -5678,13 +5672,13 @@
         <v>2964934</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M20" s="7">
         <v>6827</v>
@@ -5693,13 +5687,13 @@
         <v>5932411</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/POLIPATOLOGIA_DISC-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_DISC-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8845128-6FE3-4747-8125-C9E1BB2014E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA92BE59-BB1B-4E13-9C1B-181CEE3623F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{715DF991-75CF-473E-B6D5-8AD8577155FF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2099F12F-BE94-4A0F-B16F-FC8EC0B5BD8C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="364">
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -200,70 +200,70 @@
     <t>6,89%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>75,52%</t>
   </si>
   <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
   </si>
   <si>
     <t>84,47%</t>
   </si>
   <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>20,78%</t>
+    <t>20,34%</t>
   </si>
   <si>
     <t>27,73%</t>
@@ -272,19 +272,19 @@
     <t>18,59%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
   </si>
   <si>
     <t>87,01%</t>
   </si>
   <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
   </si>
   <si>
     <t>75,8%</t>
@@ -293,793 +293,823 @@
     <t>72,27%</t>
   </si>
   <si>
-    <t>79,22%</t>
+    <t>79,66%</t>
   </si>
   <si>
     <t>81,41%</t>
   </si>
   <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
   </si>
   <si>
     <t>22,43%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>80,86%</t>
   </si>
   <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
     <t>79,12%</t>
   </si>
   <si>
-    <t>82,55%</t>
-  </si>
-  <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
     <t>13,55%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>16,78%</t>
   </si>
   <si>
     <t>87,66%</t>
@@ -1088,25 +1118,19 @@
     <t>86,45%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
     <t>77,3%</t>
   </si>
   <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>83,22%</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACEF522-1CC2-494E-84A4-EAF981D5233C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697E644D-A898-47BB-9ADC-DDADD468442F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2465,7 +2489,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2495,7 +2519,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2516,7 +2540,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2546,7 +2570,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2581,7 +2605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE77265-12A6-4DF9-A28F-2D5892338DDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7AF2C4-FC21-4760-ACD5-9E8DA0AC4FF6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3644,7 +3668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BEF342-0DBA-4120-B919-C62CECFD2962}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F347209-5344-4AF7-A557-7DAD1956DB21}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3923,13 +3947,13 @@
         <v>45441</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>123</v>
@@ -3938,13 +3962,13 @@
         <v>133421</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>169</v>
@@ -3953,13 +3977,13 @@
         <v>178862</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3998,13 @@
         <v>512813</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>428</v>
@@ -3989,13 +4013,13 @@
         <v>426058</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>921</v>
@@ -4004,13 +4028,13 @@
         <v>938871</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4102,13 @@
         <v>100572</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>174</v>
@@ -4093,13 +4117,13 @@
         <v>200622</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>273</v>
@@ -4108,13 +4132,13 @@
         <v>301194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4153,13 @@
         <v>921859</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>803</v>
@@ -4144,13 +4168,13 @@
         <v>842291</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>1655</v>
@@ -4159,13 +4183,13 @@
         <v>1764150</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4257,13 @@
         <v>69418</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
@@ -4248,13 +4272,13 @@
         <v>143443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>193</v>
@@ -4263,13 +4287,13 @@
         <v>212861</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4308,13 @@
         <v>690134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>610</v>
@@ -4299,13 +4323,13 @@
         <v>641568</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>1239</v>
@@ -4314,13 +4338,13 @@
         <v>1331702</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4412,13 @@
         <v>82254</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>164</v>
@@ -4403,13 +4427,13 @@
         <v>190846</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>247</v>
@@ -4418,13 +4442,13 @@
         <v>273100</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4463,13 @@
         <v>855313</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>795</v>
@@ -4454,13 +4478,13 @@
         <v>852933</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>1644</v>
@@ -4469,13 +4493,13 @@
         <v>1708246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4567,13 @@
         <v>314603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>610</v>
@@ -4558,13 +4582,13 @@
         <v>693672</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>922</v>
@@ -4573,13 +4597,13 @@
         <v>1008275</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4618,13 @@
         <v>3079747</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>2728</v>
@@ -4609,13 +4633,13 @@
         <v>2850870</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>5647</v>
@@ -4624,13 +4648,13 @@
         <v>5930617</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,7 +4731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD02425-4C84-48E0-A1A6-8D29897C9E27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D22E86-83DC-4469-9245-1C4876D3B309}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4724,7 +4748,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4831,13 +4855,13 @@
         <v>21517</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
@@ -4846,13 +4870,13 @@
         <v>33154</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="M4" s="7">
         <v>99</v>
@@ -4861,13 +4885,13 @@
         <v>54671</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4906,13 @@
         <v>80465</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -4897,13 +4921,13 @@
         <v>97579</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>262</v>
@@ -4912,13 +4936,13 @@
         <v>178044</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +5010,13 @@
         <v>85297</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>281</v>
@@ -5001,13 +5025,13 @@
         <v>145851</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -5016,13 +5040,13 @@
         <v>231148</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5061,13 @@
         <v>464526</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>717</v>
@@ -5052,13 +5076,13 @@
         <v>474116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>1220</v>
@@ -5067,13 +5091,13 @@
         <v>938642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5165,13 @@
         <v>100445</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>408</v>
@@ -5156,13 +5180,13 @@
         <v>249131</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>524</v>
@@ -5171,13 +5195,13 @@
         <v>349575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5216,13 @@
         <v>938803</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>1109</v>
@@ -5207,13 +5231,13 @@
         <v>810948</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="M11" s="7">
         <v>1957</v>
@@ -5222,13 +5246,13 @@
         <v>1749752</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5320,13 @@
         <v>84734</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
         <v>251</v>
@@ -5311,13 +5335,13 @@
         <v>163389</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>339</v>
@@ -5326,13 +5350,13 @@
         <v>248122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5371,13 @@
         <v>644038</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>796</v>
@@ -5362,13 +5386,13 @@
         <v>710982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>1384</v>
@@ -5377,13 +5401,13 @@
         <v>1355020</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>321</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5475,13 @@
         <v>125758</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>112</v>
+        <v>336</v>
       </c>
       <c r="H16" s="7">
         <v>413</v>
@@ -5466,13 +5490,13 @@
         <v>279123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
         <v>564</v>
@@ -5481,13 +5505,13 @@
         <v>404880</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>128</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>329</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5526,13 @@
         <v>839645</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>121</v>
+        <v>343</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="H17" s="7">
         <v>1149</v>
@@ -5517,13 +5541,13 @@
         <v>871309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>2004</v>
@@ -5532,13 +5556,13 @@
         <v>1710955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>138</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>337</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5630,13 @@
         <v>417750</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>339</v>
+        <v>59</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>1425</v>
@@ -5621,13 +5645,13 @@
         <v>870647</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="M19" s="7">
         <v>1916</v>
@@ -5636,13 +5660,13 @@
         <v>1288397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5681,13 @@
         <v>2967478</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>349</v>
+        <v>69</v>
       </c>
       <c r="H20" s="7">
         <v>3942</v>
@@ -5672,28 +5696,28 @@
         <v>2964934</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="M20" s="7">
         <v>6827</v>
       </c>
       <c r="N20" s="7">
-        <v>5932411</v>
+        <v>5932412</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,7 +5759,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
